--- a/May/Othes/Phone Service chalan list.xlsx
+++ b/May/Othes/Phone Service chalan list.xlsx
@@ -24,24 +24,15 @@
     <t>Retailer Name</t>
   </si>
   <si>
-    <t>Imei No</t>
-  </si>
-  <si>
     <t xml:space="preserve">Receive Date </t>
   </si>
   <si>
     <t>Delivery Date</t>
   </si>
   <si>
-    <t xml:space="preserve"> Retailer Sign</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tulip-2 </t>
   </si>
   <si>
-    <t>Madrasha Market, Bagha Bajar ,Rajshahi.</t>
-  </si>
-  <si>
     <t>S.N</t>
   </si>
   <si>
@@ -52,9 +43,6 @@
   </si>
   <si>
     <t>Rahinul Islam Kabir</t>
-  </si>
-  <si>
-    <t>Distributor: Symphony Mobile(HandSet)</t>
   </si>
   <si>
     <t>Business Manager</t>
@@ -83,6 +71,18 @@
   </si>
   <si>
     <t>DSR</t>
+  </si>
+  <si>
+    <t>IMEI No</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Retailer Signature</t>
+  </si>
+  <si>
+    <t>Distributor: Symphony (Mobile HandSet) Edison - Group</t>
+  </si>
+  <si>
+    <t>Madrasha Market, Bagha Bajar , Bagha, Rajshahi.</t>
   </si>
 </sst>
 </file>
@@ -150,7 +150,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -186,6 +186,19 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -201,15 +214,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -217,18 +234,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -246,16 +259,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1666875</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -263,9 +276,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="38100" y="12563475"/>
-          <a:ext cx="1219200" cy="0"/>
+        <a:xfrm flipV="1">
+          <a:off x="323850" y="13868400"/>
+          <a:ext cx="1657350" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -291,15 +304,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1057275</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>1152525</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -308,8 +321,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6686550" y="12573000"/>
-          <a:ext cx="1419225" cy="0"/>
+          <a:off x="7105650" y="13868400"/>
+          <a:ext cx="1628775" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -620,36 +633,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F37" sqref="A1:G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
     <col min="4" max="4" width="31.7109375" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" customWidth="1"/>
-    <col min="7" max="7" width="22.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="42.75">
-      <c r="A1" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-    </row>
-    <row r="2" spans="1:7" ht="21.75" customHeight="1">
+    <row r="1" spans="1:7" ht="37.5" customHeight="1">
+      <c r="A1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+    </row>
+    <row r="2" spans="1:7" ht="22.5" customHeight="1">
       <c r="A2" s="12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
@@ -658,9 +672,9 @@
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
     </row>
-    <row r="3" spans="1:7" ht="21" customHeight="1">
+    <row r="3" spans="1:7" ht="23.25" customHeight="1" thickBot="1">
       <c r="A3" s="14" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -669,27 +683,27 @@
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="3" t="s">
+    <row r="4" spans="1:7" s="3" customFormat="1" ht="24.95" customHeight="1" thickTop="1">
+      <c r="A4" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>5</v>
+      <c r="G4" s="13" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="30.95" customHeight="1">
@@ -990,53 +1004,90 @@
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7" ht="30.95" customHeight="1">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="2">
+        <v>28</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7" ht="30.95" customHeight="1">
+      <c r="A33" s="2">
+        <v>29</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7" ht="30.95" customHeight="1">
+      <c r="A34" s="2">
+        <v>30</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:7" s="5" customFormat="1" ht="30.95" customHeight="1">
+      <c r="A35" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="9"/>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" s="9"/>
+    </row>
+    <row r="36" spans="1:7" ht="30.95" customHeight="1">
+      <c r="A36" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="10"/>
+      <c r="F36" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" s="11"/>
+    </row>
+    <row r="37" spans="1:7" ht="30.95" customHeight="1">
+      <c r="A37" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="7"/>
-      <c r="F32" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G32" s="7"/>
-    </row>
-    <row r="33" spans="1:7" ht="30.95" customHeight="1">
-      <c r="A33" s="8" t="s">
+      <c r="B37" s="6"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="8"/>
-      <c r="F33" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" s="5"/>
-    </row>
-    <row r="34" spans="1:7" s="10" customFormat="1" ht="30.95" customHeight="1">
-      <c r="A34" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" s="9"/>
-      <c r="F34" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G34" s="11"/>
-    </row>
-    <row r="35" spans="1:7" ht="30.95" customHeight="1"/>
-    <row r="36" spans="1:7" ht="30.95" customHeight="1"/>
-    <row r="37" spans="1:7" ht="30.95" customHeight="1"/>
-    <row r="38" spans="1:7" ht="30" customHeight="1"/>
+      <c r="G37" s="7"/>
+    </row>
+    <row r="38" spans="1:7" ht="30.95" customHeight="1"/>
+    <row r="39" spans="1:7" ht="30" customHeight="1"/>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="F37:G37"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="F36:G36"/>
     <mergeCell ref="A2:G2"/>
   </mergeCells>
-  <pageMargins left="0.5" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup scale="75" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.44" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup scale="70" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
